--- a/output/fit_clients/fit_round_382.xlsx
+++ b/output/fit_clients/fit_round_382.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1853227996.146687</v>
+        <v>2355285876.886478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1086834904674663</v>
+        <v>0.09195525308996204</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03489245106751602</v>
+        <v>0.03139184132727919</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>926613974.0320629</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2384984226.30325</v>
+        <v>1596452598.299513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1441423325900489</v>
+        <v>0.1372010144291985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04151979101614846</v>
+        <v>0.03300640534522669</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1192492212.844433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4269442784.821601</v>
+        <v>4120560481.275206</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1552160275560671</v>
+        <v>0.1394476716202643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02991392356370275</v>
+        <v>0.03442850104270805</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>138</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2134721425.682586</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3321218009.075447</v>
+        <v>3078122124.534764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07350044483364691</v>
+        <v>0.1094621662248871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03786706875878696</v>
+        <v>0.04426165100328108</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>140</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1660609053.15574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1766390285.746419</v>
+        <v>2712113113.673505</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1490348616012593</v>
+        <v>0.1151405366964939</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04209886074598335</v>
+        <v>0.04566011407752865</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>883195197.7632315</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2642525214.934148</v>
+        <v>2805131162.434914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09278960870186756</v>
+        <v>0.07654360168708985</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04387021789759536</v>
+        <v>0.04244678959356568</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>120</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1321262606.768998</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3129339459.582707</v>
+        <v>3305260156.90426</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1551713649309827</v>
+        <v>0.2044818368310607</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03004276026820159</v>
+        <v>0.03332275279486001</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1564669800.539309</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2077536610.918283</v>
+        <v>1605783497.602178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1429856586847104</v>
+        <v>0.1323942471716798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02579041487191834</v>
+        <v>0.03058755582798027</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1038768321.317883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5399264476.208241</v>
+        <v>5228453042.288711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1846029491341946</v>
+        <v>0.2068509829762419</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04252831208746918</v>
+        <v>0.0356268937591865</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2699632368.374899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3996581833.375696</v>
+        <v>3527987613.171487</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1422290108534227</v>
+        <v>0.1584622884550176</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0394877471216646</v>
+        <v>0.03588905617160312</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>157</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1998290929.121356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2999637202.334076</v>
+        <v>2818333576.353924</v>
       </c>
       <c r="F12" t="n">
-        <v>0.177798702094453</v>
+        <v>0.1403611270459486</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0467141022713</v>
+        <v>0.04032222667794582</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>130</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1499818619.16909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3369888608.295201</v>
+        <v>3544158288.414747</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06621636933382105</v>
+        <v>0.09169799547588577</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03040373105364885</v>
+        <v>0.01939420609629205</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>128</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1684944391.093125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3618428506.845201</v>
+        <v>2554793612.6911</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1272147348714211</v>
+        <v>0.1806001431024818</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03484915722889977</v>
+        <v>0.03606003571825288</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>123</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1809214243.089365</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1773893598.513396</v>
+        <v>1776871817.124455</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1024655234285653</v>
+        <v>0.09197707486908616</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03994202845460001</v>
+        <v>0.04178461330055162</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>886946946.8783554</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2098898791.083967</v>
+        <v>2796893529.960936</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07783020909918931</v>
+        <v>0.116598991623665</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05081521230708814</v>
+        <v>0.04002207083108898</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>77</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1049449462.215851</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3393515339.897669</v>
+        <v>4984314308.404449</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1591511097090653</v>
+        <v>0.1609108555272371</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04684767286163155</v>
+        <v>0.04072954098810051</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>111</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1696757734.493894</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2442444949.519539</v>
+        <v>3643368166.997585</v>
       </c>
       <c r="F18" t="n">
-        <v>0.143299818707787</v>
+        <v>0.1148353037740755</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02517206393972459</v>
+        <v>0.0267510865155167</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>125</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1221222545.405556</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1119404387.018903</v>
+        <v>834734767.5088447</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1315842463120688</v>
+        <v>0.1876142420399606</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02112440929775295</v>
+        <v>0.02665547426988258</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>559702251.8114758</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2809252928.197362</v>
+        <v>2392386490.374665</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1574243433747532</v>
+        <v>0.1034700643284926</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02818209419555889</v>
+        <v>0.02794660594007042</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1404626404.266144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1677482521.53964</v>
+        <v>1646817944.22545</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08969251104656011</v>
+        <v>0.06427100833672947</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03681168963400745</v>
+        <v>0.02945808788894301</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>838741327.6005682</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2696376350.664117</v>
+        <v>3889101590.853717</v>
       </c>
       <c r="F22" t="n">
-        <v>0.134868144738105</v>
+        <v>0.1188013982103096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05392424883268501</v>
+        <v>0.04059767064233262</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1348188255.057093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1351508475.053327</v>
+        <v>1426945421.638039</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1692163715038904</v>
+        <v>0.1668916573489209</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03360919833476236</v>
+        <v>0.03339898340165771</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>675754248.4921883</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3965199266.185523</v>
+        <v>3601383541.308483</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09124744057779409</v>
+        <v>0.09502223653053964</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03140465332344076</v>
+        <v>0.03711120858799866</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>111</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1982599603.441898</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1093343607.42892</v>
+        <v>1020410657.897414</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09924720986816273</v>
+        <v>0.1009397578388891</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02259252817555783</v>
+        <v>0.02089927620779772</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>546671846.2541028</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1119236090.822744</v>
+        <v>1451214465.028578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1242543983013154</v>
+        <v>0.08619947430999321</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02450113562083069</v>
+        <v>0.02381102526174977</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>559618046.6637409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4400512149.659716</v>
+        <v>3022155913.954235</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1516678888734138</v>
+        <v>0.1551368365224923</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02611932770025244</v>
+        <v>0.02126845052204139</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>88</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2200256065.125057</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3892966040.045882</v>
+        <v>3278070288.652795</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1165665087619062</v>
+        <v>0.127527690085941</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03850484480384483</v>
+        <v>0.04425397834162467</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>123</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1946483108.76062</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5736985929.008964</v>
+        <v>3924042508.396479</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09864927475431597</v>
+        <v>0.1397133734446696</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03333115532764373</v>
+        <v>0.04233170581193179</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>168</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2868492861.061665</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1885247701.102603</v>
+        <v>1930183539.090952</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1039318219410826</v>
+        <v>0.1370033048659502</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03569737780088655</v>
+        <v>0.03684490219140306</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>942623874.9283245</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1332187224.639292</v>
+        <v>1376660636.137862</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09005173386182323</v>
+        <v>0.0744195333072686</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04875946971952622</v>
+        <v>0.04694564738984024</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>666093532.6859283</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1335357670.691579</v>
+        <v>1682354221.199507</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08767339713591502</v>
+        <v>0.08684554378072651</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02902994322562919</v>
+        <v>0.03609762592172456</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>667678869.6151797</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2490897017.256438</v>
+        <v>1933516794.663264</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1720504718872121</v>
+        <v>0.1921733776244187</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03935325134773345</v>
+        <v>0.04653638612924212</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>115</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1245448547.626264</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1463388101.393111</v>
+        <v>1504125177.060471</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1029005496078675</v>
+        <v>0.07875937303238026</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02567036601229541</v>
+        <v>0.01905388076821941</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>731694012.5390534</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>935006998.5889645</v>
+        <v>1100901170.063247</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09615402488860622</v>
+        <v>0.07608904431176268</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03296758159141901</v>
+        <v>0.04069442474118883</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>467503532.1290863</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3209412817.000582</v>
+        <v>2688030135.691204</v>
       </c>
       <c r="F36" t="n">
-        <v>0.141345093628839</v>
+        <v>0.1442279905047335</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01863162870899809</v>
+        <v>0.02545294754315543</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>96</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1604706373.65877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2571422166.033676</v>
+        <v>2271615536.703482</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09006934465000999</v>
+        <v>0.07727713091745513</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04174542699671337</v>
+        <v>0.02698705249313179</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>101</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1285711188.919279</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1818017718.27149</v>
+        <v>1765458108.435063</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09616997409218923</v>
+        <v>0.09201960695577108</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02929294335934716</v>
+        <v>0.02935681091863477</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>909008863.4873259</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1771743446.766207</v>
+        <v>2164172767.613994</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1306663510603892</v>
+        <v>0.1754982132802705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02536512573256185</v>
+        <v>0.02105787320862689</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>885871752.5743797</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1158947096.293472</v>
+        <v>1475621116.17225</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1534519090649646</v>
+        <v>0.1265438160844317</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04883651413311971</v>
+        <v>0.05309629665594788</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>579473599.7364814</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2300984842.092498</v>
+        <v>2222406123.425009</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1560906345265966</v>
+        <v>0.1348813397481761</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03954717568674408</v>
+        <v>0.03053513661226189</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1150492465.819262</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4192810390.267337</v>
+        <v>3733987948.10283</v>
       </c>
       <c r="F42" t="n">
-        <v>0.119696684935419</v>
+        <v>0.08652873021490311</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03788984261974494</v>
+        <v>0.04469690546969741</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2096405237.694794</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3057371152.490878</v>
+        <v>2758039384.33126</v>
       </c>
       <c r="F43" t="n">
-        <v>0.129408257349617</v>
+        <v>0.1719775502273834</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02370408110120131</v>
+        <v>0.02174808028920928</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>133</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1528685568.855406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2254610722.743731</v>
+        <v>1461393754.980902</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07633630310391827</v>
+        <v>0.09863919492896858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02940589983789161</v>
+        <v>0.03177640381449703</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1127305518.518275</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1818562257.69529</v>
+        <v>2189859500.439306</v>
       </c>
       <c r="F45" t="n">
-        <v>0.188192483794091</v>
+        <v>0.1638005571305455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04443534043282406</v>
+        <v>0.05458295285221813</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>909281101.4142256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4604061350.776029</v>
+        <v>3697842003.019384</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1425613421705272</v>
+        <v>0.1311710260127646</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05948609487397288</v>
+        <v>0.05779690087959625</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>136</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2302030679.557826</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3399911042.243024</v>
+        <v>4374891822.210399</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1957638299393871</v>
+        <v>0.1386204048026291</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05857664730744753</v>
+        <v>0.05694463526879011</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>102</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1699955486.276201</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4511101151.879551</v>
+        <v>3402217338.592596</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07734438239868256</v>
+        <v>0.08713424433892873</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03621747262440837</v>
+        <v>0.0272668539604934</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2255550580.644468</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1317260982.049103</v>
+        <v>1810210274.085628</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146522742106919</v>
+        <v>0.124556820928307</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03565541548434718</v>
+        <v>0.03122131180407</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>658630551.4707291</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3543255845.064741</v>
+        <v>3426453810.207482</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1401745345568237</v>
+        <v>0.1305333125474326</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05233389422750927</v>
+        <v>0.04010311428069346</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>130</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1771627943.713418</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1079106730.361076</v>
+        <v>1545868724.005604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1391070428531213</v>
+        <v>0.1196607722481149</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03495426920217432</v>
+        <v>0.04113872871181739</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>539553436.3416935</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4875246374.686515</v>
+        <v>5250257889.406424</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1035662099913911</v>
+        <v>0.1114529302004588</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04133959628004855</v>
+        <v>0.05139273752232099</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>157</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2437623192.322148</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2610498343.049412</v>
+        <v>3784439120.586644</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1330422420735421</v>
+        <v>0.1339659433784973</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03462840578340477</v>
+        <v>0.0316218282006584</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>109</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1305249230.893992</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3979312494.505892</v>
+        <v>4967940667.116364</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1656559299202309</v>
+        <v>0.111751023838654</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04573491748566574</v>
+        <v>0.05112305671551966</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1989656309.719632</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4355387719.142914</v>
+        <v>4449267505.638524</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1466711553915891</v>
+        <v>0.1457833457273586</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03161144503931194</v>
+        <v>0.02836776041706099</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2177693850.178609</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1851434637.526133</v>
+        <v>1516739828.847419</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1347103629134939</v>
+        <v>0.1405322171285018</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04751340476615999</v>
+        <v>0.04967924188263899</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>925717308.9591657</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3338308964.449646</v>
+        <v>4072346954.410376</v>
       </c>
       <c r="F57" t="n">
-        <v>0.171858574420056</v>
+        <v>0.1650158966700813</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02296228387237538</v>
+        <v>0.01781481083827798</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>121</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1669154515.048297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1905981264.735271</v>
+        <v>1188113718.031</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1412308775540081</v>
+        <v>0.1602572208208022</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0287981958732862</v>
+        <v>0.0269375564463579</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>952990626.4600449</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3906716810.693391</v>
+        <v>3599919001.287539</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1007609315830538</v>
+        <v>0.1023310929378232</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03660442207186518</v>
+        <v>0.03904932465620463</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1953358385.791694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2362758632.263468</v>
+        <v>3120852347.229511</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1365360617630644</v>
+        <v>0.1577324051817948</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02285211326073549</v>
+        <v>0.03160080876529107</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1181379319.654359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3341976004.775671</v>
+        <v>3058260168.98912</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1798593934820104</v>
+        <v>0.1498922283752607</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02595103013040969</v>
+        <v>0.02139669130375575</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>131</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1670987950.616625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1511186433.060577</v>
+        <v>1648504738.069282</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1604199984526787</v>
+        <v>0.1770995437015714</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03933104674580455</v>
+        <v>0.03512824843870455</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>755593201.2771071</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5382549157.914051</v>
+        <v>3556263534.119648</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1031143842933865</v>
+        <v>0.1068652044470627</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03288427542339981</v>
+        <v>0.03552115218953171</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>109</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2691274579.644704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4932109058.479311</v>
+        <v>4194607822.750909</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1363349410989514</v>
+        <v>0.1601341781408627</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02935126719145072</v>
+        <v>0.02206063125427953</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>119</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2466054630.676509</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4072594306.115855</v>
+        <v>4046765690.302505</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1115000068938973</v>
+        <v>0.1218141001658098</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03174617136027452</v>
+        <v>0.03139545706351347</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>137</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2036297167.321013</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4796428497.534915</v>
+        <v>4649216509.567815</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1524553564604472</v>
+        <v>0.1330022852353356</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0332324767959136</v>
+        <v>0.03652120850035616</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>112</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2398214265.014894</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2802525315.757214</v>
+        <v>2623503209.031678</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06527842844185752</v>
+        <v>0.08006108475462219</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05114688325470967</v>
+        <v>0.04520311726424615</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>122</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1401262692.906694</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5987014727.063341</v>
+        <v>4187848221.637129</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1184642344794773</v>
+        <v>0.1432475641518348</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03558960160827048</v>
+        <v>0.04259050495353889</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>122</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2993507479.757078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1595731885.78393</v>
+        <v>2213699449.632977</v>
       </c>
       <c r="F69" t="n">
-        <v>0.13742425319435</v>
+        <v>0.1633625977871004</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04758636096554623</v>
+        <v>0.05806141463771589</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>797865895.614753</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2719855489.886544</v>
+        <v>2813763954.787842</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09984831421195396</v>
+        <v>0.09047585118475697</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03840705773682613</v>
+        <v>0.03801619331598234</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>109</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1359927703.692667</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4752074363.096782</v>
+        <v>3967276703.99759</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1285488646444466</v>
+        <v>0.1168599444936229</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02120267511220009</v>
+        <v>0.02550023409321434</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>139</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2376037268.731469</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1638551961.463618</v>
+        <v>2199127877.843167</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09207005701924217</v>
+        <v>0.08451482128439053</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03707644287910494</v>
+        <v>0.05275487079077769</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>819275985.399925</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3144434578.174309</v>
+        <v>3086431045.267085</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07876435066335111</v>
+        <v>0.08355879106688549</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04666895204841016</v>
+        <v>0.03362576363726916</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>145</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1572217271.86241</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3502770056.793401</v>
+        <v>3630431345.179964</v>
       </c>
       <c r="F74" t="n">
-        <v>0.183780871355879</v>
+        <v>0.1248605186866232</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0256090246743934</v>
+        <v>0.03375446251016165</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>130</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1751385050.339824</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2252527246.003563</v>
+        <v>2000989825.079956</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087473869216212</v>
+        <v>0.133085567546833</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02573804948140249</v>
+        <v>0.0269630918344013</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1126263563.589549</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4068634424.293328</v>
+        <v>4256235621.965263</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1057566814771875</v>
+        <v>0.1230604566345324</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03165990502101764</v>
+        <v>0.03190825919738818</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2034317199.778035</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2250368410.955587</v>
+        <v>1826538039.061431</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1818707405214501</v>
+        <v>0.139856038007481</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03050721512403269</v>
+        <v>0.02722987894557596</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1125184304.020891</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3006372761.342411</v>
+        <v>3772708138.723653</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1146620472561761</v>
+        <v>0.09307975513584035</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04939870211877619</v>
+        <v>0.03615560451540203</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>132</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1503186417.505017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1852799119.852691</v>
+        <v>1198582280.466882</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1324778644856875</v>
+        <v>0.145629908843531</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03840462345758729</v>
+        <v>0.03357224766477258</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>926399655.8556318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5005421405.959607</v>
+        <v>5060930207.78164</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08501194031955162</v>
+        <v>0.0776052055627615</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03718294068100861</v>
+        <v>0.03503014888428216</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2502710752.468767</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3456456707.961557</v>
+        <v>3293456749.854002</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0862923709428431</v>
+        <v>0.1194917123981421</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03243005488215962</v>
+        <v>0.0204216867046974</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1728228297.006431</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3888246856.20903</v>
+        <v>4090641141.87969</v>
       </c>
       <c r="F82" t="n">
-        <v>0.148987545446343</v>
+        <v>0.1376597707704541</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01977121757540803</v>
+        <v>0.02272205396214163</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1944123474.114648</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2143967806.356135</v>
+        <v>1513940958.733731</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1089395259652261</v>
+        <v>0.1341203954407962</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0277154752745619</v>
+        <v>0.04175981980819551</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1071983906.387348</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2478701734.76801</v>
+        <v>2594183011.154402</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09867109289219776</v>
+        <v>0.08370556383472535</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04782901998812653</v>
+        <v>0.03768827497817681</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1239350802.305708</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2238632437.48024</v>
+        <v>3645973935.787402</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1785541525146538</v>
+        <v>0.148078585518006</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04544910873073298</v>
+        <v>0.04887866233606066</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>144</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1119316194.875286</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1847824844.358982</v>
+        <v>2716398883.813502</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1402810573809154</v>
+        <v>0.1397967376689566</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02587751320692314</v>
+        <v>0.0169315252486382</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>923912428.6553913</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1193683881.371876</v>
+        <v>1207781707.365161</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1894925721549956</v>
+        <v>0.164087203030114</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0300701011173517</v>
+        <v>0.03299539006010298</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>596841994.667608</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3427518702.916081</v>
+        <v>2256111190.88475</v>
       </c>
       <c r="F88" t="n">
-        <v>0.129468019273922</v>
+        <v>0.174628491784455</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03164816504639871</v>
+        <v>0.03823323183956328</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>150</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1713759424.162144</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2730341124.244789</v>
+        <v>2639526358.116655</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1543129860506229</v>
+        <v>0.1233187257534353</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02725850878113178</v>
+        <v>0.02842651815119516</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>129</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1365170620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1444924017.717331</v>
+        <v>1720119523.487219</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1117651028141965</v>
+        <v>0.1064761365356693</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05146966938919986</v>
+        <v>0.05519283722245646</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>722461977.492889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1816361787.430528</v>
+        <v>1541025394.08955</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1599673796884091</v>
+        <v>0.1405010641131949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03738881444099928</v>
+        <v>0.04701871355585889</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>908180890.4577973</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1881130999.073547</v>
+        <v>2421110436.78976</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09013343903435066</v>
+        <v>0.08731921656965734</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03636918971753698</v>
+        <v>0.02894157230298903</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>109</v>
-      </c>
-      <c r="J92" t="n">
-        <v>940565436.7357017</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4786638083.374851</v>
+        <v>3689222593.846702</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1038424727722165</v>
+        <v>0.1046351635484528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03838826911248303</v>
+        <v>0.04564097453500644</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2393318991.464333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1879107766.289934</v>
+        <v>1973967682.332822</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1647115883923567</v>
+        <v>0.1500817266597793</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02756760981199947</v>
+        <v>0.02847189394458359</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>939553865.8320109</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3141018962.224335</v>
+        <v>2537889817.181129</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1157851177661829</v>
+        <v>0.1363943224853311</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03693850435438991</v>
+        <v>0.04405275978524503</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>94</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1570509470.591253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1894583613.16885</v>
+        <v>1490447338.530987</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1304809193750016</v>
+        <v>0.1131602408612816</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03699212688264323</v>
+        <v>0.03169623360161977</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>947291804.8226924</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4733819278.243032</v>
+        <v>5326804859.032619</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1511081556499392</v>
+        <v>0.1664827278300257</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02149655441486985</v>
+        <v>0.0252428735499097</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>122</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2366909754.521342</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2855716484.39841</v>
+        <v>2530311486.688064</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08598086681523916</v>
+        <v>0.1173294622377183</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02173263487667774</v>
+        <v>0.0206712089093317</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>101</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1427858217.127318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2632516797.758113</v>
+        <v>2361123278.09643</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1404684264139663</v>
+        <v>0.144299169187271</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03450519722029548</v>
+        <v>0.02891274199747006</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>121</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1316258358.224658</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3759896072.741879</v>
+        <v>3960392389.826383</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1564026780684662</v>
+        <v>0.1497610593808003</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0252202959626505</v>
+        <v>0.02160904607652056</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1879948087.900783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3017397959.480745</v>
+        <v>2656408771.635617</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1383597546830811</v>
+        <v>0.1753831801477955</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03693822582909582</v>
+        <v>0.04762787346774505</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>155</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1508699071.151199</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_382.xlsx
+++ b/output/fit_clients/fit_round_382.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2355285876.886478</v>
+        <v>1738701433.99656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09195525308996204</v>
+        <v>0.09005970228912011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03139184132727919</v>
+        <v>0.0301898787766851</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1596452598.299513</v>
+        <v>1634149661.577727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1372010144291985</v>
+        <v>0.1827980647872106</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03300640534522669</v>
+        <v>0.03515887607467778</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4120560481.275206</v>
+        <v>4064131500.863963</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1394476716202643</v>
+        <v>0.1103973826064674</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03442850104270805</v>
+        <v>0.02593199445402343</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3078122124.534764</v>
+        <v>4149527850.251243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1094621662248871</v>
+        <v>0.09438097953640126</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04426165100328108</v>
+        <v>0.0436267847977403</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2712113113.673505</v>
+        <v>2120780581.385812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1151405366964939</v>
+        <v>0.1095770513201514</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04566011407752865</v>
+        <v>0.03983242336770931</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2805131162.434914</v>
+        <v>2031218345.201137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07654360168708985</v>
+        <v>0.09042470999495694</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04244678959356568</v>
+        <v>0.03222377327607043</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3305260156.90426</v>
+        <v>2721686457.381515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2044818368310607</v>
+        <v>0.2125449996831888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03332275279486001</v>
+        <v>0.02173308477220725</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1605783497.602178</v>
+        <v>2276185272.802984</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1323942471716798</v>
+        <v>0.1197765533383015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03058755582798027</v>
+        <v>0.03019465032507479</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5228453042.288711</v>
+        <v>3799755382.641378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2068509829762419</v>
+        <v>0.1527702333146907</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0356268937591865</v>
+        <v>0.04468670305462216</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3527987613.171487</v>
+        <v>4084526432.359439</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1584622884550176</v>
+        <v>0.1384342055953655</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03588905617160312</v>
+        <v>0.03380194885505248</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2818333576.353924</v>
+        <v>2383909811.81778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403611270459486</v>
+        <v>0.1400199579060705</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04032222667794582</v>
+        <v>0.0514411411626947</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3544158288.414747</v>
+        <v>3487763891.326982</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09169799547588577</v>
+        <v>0.07226387981243837</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01939420609629205</v>
+        <v>0.02569385502962629</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2554793612.6911</v>
+        <v>2933093298.249099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1806001431024818</v>
+        <v>0.1222111596105672</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03606003571825288</v>
+        <v>0.03535985511463641</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1776871817.124455</v>
+        <v>1222225134.706483</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09197707486908616</v>
+        <v>0.07672056687817344</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04178461330055162</v>
+        <v>0.03216328782332951</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2796893529.960936</v>
+        <v>2503429030.028154</v>
       </c>
       <c r="F16" t="n">
-        <v>0.116598991623665</v>
+        <v>0.1005173160962221</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04002207083108898</v>
+        <v>0.04615798876144462</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4984314308.404449</v>
+        <v>5321955171.343588</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1609108555272371</v>
+        <v>0.1157521196286593</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04072954098810051</v>
+        <v>0.05002591270317941</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3643368166.997585</v>
+        <v>3264302701.619591</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1148353037740755</v>
+        <v>0.1829636200945375</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0267510865155167</v>
+        <v>0.03047343073157088</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>834734767.5088447</v>
+        <v>1293430524.42613</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1876142420399606</v>
+        <v>0.148015232582758</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02665547426988258</v>
+        <v>0.02153801941867713</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2392386490.374665</v>
+        <v>2059216529.151684</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1034700643284926</v>
+        <v>0.1268715529004892</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02794660594007042</v>
+        <v>0.02602289956379876</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1646817944.22545</v>
+        <v>2431840648.654749</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06427100833672947</v>
+        <v>0.0961072115945916</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02945808788894301</v>
+        <v>0.03163361773395772</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3889101590.853717</v>
+        <v>3537642598.675472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1188013982103096</v>
+        <v>0.08883620261732394</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04059767064233262</v>
+        <v>0.05207114175914314</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1426945421.638039</v>
+        <v>1363116582.848076</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1668916573489209</v>
+        <v>0.1485777413960096</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03339898340165771</v>
+        <v>0.04560442193754794</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3601383541.308483</v>
+        <v>3402681628.612264</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09502223653053964</v>
+        <v>0.116159429603798</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03711120858799866</v>
+        <v>0.02297841857978605</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1020410657.897414</v>
+        <v>1400020453.334356</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1009397578388891</v>
+        <v>0.07658471229858205</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02089927620779772</v>
+        <v>0.02138001906939133</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1451214465.028578</v>
+        <v>977254150.4486408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08619947430999321</v>
+        <v>0.08461873659191464</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02381102526174977</v>
+        <v>0.02957812555018226</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3022155913.954235</v>
+        <v>3748326830.418604</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1551368365224923</v>
+        <v>0.1077513837226908</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02126845052204139</v>
+        <v>0.02612471241670282</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3278070288.652795</v>
+        <v>3327943946.840537</v>
       </c>
       <c r="F28" t="n">
-        <v>0.127527690085941</v>
+        <v>0.1271976476706676</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04425397834162467</v>
+        <v>0.04382965345849762</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3924042508.396479</v>
+        <v>5747677216.675073</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1397133734446696</v>
+        <v>0.09233762281369351</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04233170581193179</v>
+        <v>0.04387089822419863</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1930183539.090952</v>
+        <v>1777697614.375833</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1370033048659502</v>
+        <v>0.1385106476600419</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03684490219140306</v>
+        <v>0.03431938977728353</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1376660636.137862</v>
+        <v>924716718.6027782</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0744195333072686</v>
+        <v>0.110778540088946</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04694564738984024</v>
+        <v>0.03546448171664794</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1682354221.199507</v>
+        <v>1525462289.799731</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08684554378072651</v>
+        <v>0.09779479591933936</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03609762592172456</v>
+        <v>0.02848962306819346</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1933516794.663264</v>
+        <v>2331578809.272942</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1921733776244187</v>
+        <v>0.1758854443201818</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04653638612924212</v>
+        <v>0.04323337328039079</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1504125177.060471</v>
+        <v>982798135.9443536</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07875937303238026</v>
+        <v>0.09723268511639238</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01905388076821941</v>
+        <v>0.0266700032148923</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1100901170.063247</v>
+        <v>826633315.0421768</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07608904431176268</v>
+        <v>0.1014900852301621</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04069442474118883</v>
+        <v>0.04465739548758774</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2688030135.691204</v>
+        <v>2514065261.898333</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1442279905047335</v>
+        <v>0.1425606758200983</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02545294754315543</v>
+        <v>0.0211562375511224</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2271615536.703482</v>
+        <v>1965210463.992275</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07727713091745513</v>
+        <v>0.06948820354903988</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02698705249313179</v>
+        <v>0.02970836710354662</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1765458108.435063</v>
+        <v>1829647305.462139</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09201960695577108</v>
+        <v>0.08773079135355757</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02935681091863477</v>
+        <v>0.03131760573485431</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2164172767.613994</v>
+        <v>1907911437.142541</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1754982132802705</v>
+        <v>0.127319221366584</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02105787320862689</v>
+        <v>0.02419068367499318</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1475621116.17225</v>
+        <v>1497569108.397699</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1265438160844317</v>
+        <v>0.1431242900835641</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05309629665594788</v>
+        <v>0.05465998043194601</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2222406123.425009</v>
+        <v>2891787652.26838</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1348813397481761</v>
+        <v>0.1406972987443837</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03053513661226189</v>
+        <v>0.03478911747024131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3733987948.10283</v>
+        <v>2921589373.893938</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08652873021490311</v>
+        <v>0.08400959422642708</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04469690546969741</v>
+        <v>0.03412037189238845</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2758039384.33126</v>
+        <v>2452648133.728231</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1719775502273834</v>
+        <v>0.148878307992849</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02174808028920928</v>
+        <v>0.01867510808218859</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1461393754.980902</v>
+        <v>1606063080.028417</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09863919492896858</v>
+        <v>0.098342955501628</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03177640381449703</v>
+        <v>0.02264132878347305</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2189859500.439306</v>
+        <v>1925376973.094662</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1638005571305455</v>
+        <v>0.1693786407711196</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05458295285221813</v>
+        <v>0.03912281037706807</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3697842003.019384</v>
+        <v>4780447774.48368</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1311710260127646</v>
+        <v>0.1472739068277542</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05779690087959625</v>
+        <v>0.04372334078780045</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4374891822.210399</v>
+        <v>4856752437.641621</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1386204048026291</v>
+        <v>0.1289073933859878</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05694463526879011</v>
+        <v>0.05345513107188542</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3402217338.592596</v>
+        <v>4612812955.076241</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08713424433892873</v>
+        <v>0.09942635212499391</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0272668539604934</v>
+        <v>0.03064932525319271</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1810210274.085628</v>
+        <v>1878916995.524115</v>
       </c>
       <c r="F49" t="n">
-        <v>0.124556820928307</v>
+        <v>0.1482397386996029</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03122131180407</v>
+        <v>0.04187693606650942</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3426453810.207482</v>
+        <v>3940507890.903176</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1305333125474326</v>
+        <v>0.111094509541122</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04010311428069346</v>
+        <v>0.04326562538320012</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1545868724.005604</v>
+        <v>1253270699.858019</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1196607722481149</v>
+        <v>0.1346094908946426</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04113872871181739</v>
+        <v>0.03767440632545537</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5250257889.406424</v>
+        <v>3754490825.138759</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1114529302004588</v>
+        <v>0.1075411567601933</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05139273752232099</v>
+        <v>0.05082937203803811</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3784439120.586644</v>
+        <v>3596781571.653056</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1339659433784973</v>
+        <v>0.1293161089349438</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0316218282006584</v>
+        <v>0.02691702604769155</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4967940667.116364</v>
+        <v>3100180891.15815</v>
       </c>
       <c r="F54" t="n">
-        <v>0.111751023838654</v>
+        <v>0.141712552515613</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05112305671551966</v>
+        <v>0.03673553205530829</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4449267505.638524</v>
+        <v>3582120312.623789</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1457833457273586</v>
+        <v>0.1623318798194734</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02836776041706099</v>
+        <v>0.0196631179894651</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1516739828.847419</v>
+        <v>1175373398.426606</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1405322171285018</v>
+        <v>0.1002111220807889</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04967924188263899</v>
+        <v>0.05383430111357373</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4072346954.410376</v>
+        <v>2877901749.56776</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1650158966700813</v>
+        <v>0.1474731701798914</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01781481083827798</v>
+        <v>0.02359099709300388</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1188113718.031</v>
+        <v>1419204680.061862</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1602572208208022</v>
+        <v>0.1440444674690353</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0269375564463579</v>
+        <v>0.03984345909021552</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3599919001.287539</v>
+        <v>5358642249.471544</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1023310929378232</v>
+        <v>0.1195166840360292</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03904932465620463</v>
+        <v>0.03817661298229395</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3120852347.229511</v>
+        <v>3685894439.535537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1577324051817948</v>
+        <v>0.1754111956003956</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03160080876529107</v>
+        <v>0.02266231637733791</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3058260168.98912</v>
+        <v>2116777041.350434</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1498922283752607</v>
+        <v>0.1794120554816664</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02139669130375575</v>
+        <v>0.02469209065925681</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1648504738.069282</v>
+        <v>1598111050.702708</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1770995437015714</v>
+        <v>0.1402690061722753</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03512824843870455</v>
+        <v>0.04920878741340569</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3556263534.119648</v>
+        <v>4684728752.139014</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1068652044470627</v>
+        <v>0.07627766382202082</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03552115218953171</v>
+        <v>0.04139704628274526</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4194607822.750909</v>
+        <v>4616243752.382152</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1601341781408627</v>
+        <v>0.1450250122741409</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02206063125427953</v>
+        <v>0.02258353971371252</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4046765690.302505</v>
+        <v>5473552639.855789</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1218141001658098</v>
+        <v>0.172336122625673</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03139545706351347</v>
+        <v>0.02925413738900737</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4649216509.567815</v>
+        <v>5709457172.440371</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1330022852353356</v>
+        <v>0.1075038764625443</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03652120850035616</v>
+        <v>0.04835909153970378</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2623503209.031678</v>
+        <v>3129521951.718819</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08006108475462219</v>
+        <v>0.06855860872907685</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04520311726424615</v>
+        <v>0.03905470856879972</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4187848221.637129</v>
+        <v>4950448089.779175</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1432475641518348</v>
+        <v>0.1394522134102245</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04259050495353889</v>
+        <v>0.05040686516261908</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2213699449.632977</v>
+        <v>2135889819.179651</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1633625977871004</v>
+        <v>0.159934806918796</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05806141463771589</v>
+        <v>0.04766181369882183</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2813763954.787842</v>
+        <v>2727339362.387496</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09047585118475697</v>
+        <v>0.08486850558426606</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03801619331598234</v>
+        <v>0.03916998300447261</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3967276703.99759</v>
+        <v>5342100958.613739</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1168599444936229</v>
+        <v>0.1587347812481114</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02550023409321434</v>
+        <v>0.03317594726888624</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2199127877.843167</v>
+        <v>1901110195.756498</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08451482128439053</v>
+        <v>0.067667181882301</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05275487079077769</v>
+        <v>0.05188261730250734</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3086431045.267085</v>
+        <v>2757556549.474279</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08355879106688549</v>
+        <v>0.1101425007084486</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03362576363726916</v>
+        <v>0.03215174988809236</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3630431345.179964</v>
+        <v>2501204671.80638</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1248605186866232</v>
+        <v>0.1602946866847107</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03375446251016165</v>
+        <v>0.02978943734984803</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2000989825.079956</v>
+        <v>2069793880.642627</v>
       </c>
       <c r="F75" t="n">
-        <v>0.133085567546833</v>
+        <v>0.1663984515133868</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0269630918344013</v>
+        <v>0.03115215866451824</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4256235621.965263</v>
+        <v>4812780164.079372</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1230604566345324</v>
+        <v>0.08868903496386009</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03190825919738818</v>
+        <v>0.02549147662411623</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1826538039.061431</v>
+        <v>1596345858.44161</v>
       </c>
       <c r="F77" t="n">
-        <v>0.139856038007481</v>
+        <v>0.1614621833647457</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02722987894557596</v>
+        <v>0.03151446019441471</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3772708138.723653</v>
+        <v>4505928691.186415</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09307975513584035</v>
+        <v>0.1147709936816672</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03615560451540203</v>
+        <v>0.04808330478546716</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1198582280.466882</v>
+        <v>1604484163.078351</v>
       </c>
       <c r="F79" t="n">
-        <v>0.145629908843531</v>
+        <v>0.1745046766873969</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03357224766477258</v>
+        <v>0.03434284981696815</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5060930207.78164</v>
+        <v>5084049068.531178</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0776052055627615</v>
+        <v>0.07294258753873743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03503014888428216</v>
+        <v>0.0315563346723212</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3293456749.854002</v>
+        <v>5076769030.27612</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1194917123981421</v>
+        <v>0.08632125931976879</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0204216867046974</v>
+        <v>0.0314009214963014</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4090641141.87969</v>
+        <v>3996329770.632671</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1376597707704541</v>
+        <v>0.178230071251927</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02272205396214163</v>
+        <v>0.01823981688406259</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1513940958.733731</v>
+        <v>1610427752.498873</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1341203954407962</v>
+        <v>0.1531308658002703</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04175981980819551</v>
+        <v>0.03102237109443382</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2594183011.154402</v>
+        <v>2595093162.168007</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08370556383472535</v>
+        <v>0.08982022106689412</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03768827497817681</v>
+        <v>0.0467824492683087</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3645973935.787402</v>
+        <v>3217112271.49384</v>
       </c>
       <c r="F85" t="n">
-        <v>0.148078585518006</v>
+        <v>0.1642108971697201</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04887866233606066</v>
+        <v>0.0554088861988434</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2716398883.813502</v>
+        <v>1975972571.777125</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1397967376689566</v>
+        <v>0.1419858814654625</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0169315252486382</v>
+        <v>0.0247986516122773</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1207781707.365161</v>
+        <v>1394686228.024346</v>
       </c>
       <c r="F87" t="n">
-        <v>0.164087203030114</v>
+        <v>0.1765748409248155</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03299539006010298</v>
+        <v>0.03179843553641477</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2256111190.88475</v>
+        <v>3429517075.688857</v>
       </c>
       <c r="F88" t="n">
-        <v>0.174628491784455</v>
+        <v>0.1179366875589402</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03823323183956328</v>
+        <v>0.03049112996685783</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2639526358.116655</v>
+        <v>2376513080.225413</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1233187257534353</v>
+        <v>0.1519498715422017</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02842651815119516</v>
+        <v>0.02976963517898366</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1720119523.487219</v>
+        <v>1823534717.733194</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1064761365356693</v>
+        <v>0.1267355450620443</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05519283722245646</v>
+        <v>0.03544333593181025</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1541025394.08955</v>
+        <v>1974530387.504866</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1405010641131949</v>
+        <v>0.1611409805818647</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04701871355585889</v>
+        <v>0.03877279107372988</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2421110436.78976</v>
+        <v>2642125159.428088</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08731921656965734</v>
+        <v>0.09274661917231648</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02894157230298903</v>
+        <v>0.03520698135294937</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3689222593.846702</v>
+        <v>3208753330.750136</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1046351635484528</v>
+        <v>0.08615603635792775</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04564097453500644</v>
+        <v>0.05347644895324895</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1973967682.332822</v>
+        <v>1986861621.176064</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1500817266597793</v>
+        <v>0.1101767910366495</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02847189394458359</v>
+        <v>0.04160144763474598</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2537889817.181129</v>
+        <v>3057290860.256722</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1363943224853311</v>
+        <v>0.1174737767724581</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04405275978524503</v>
+        <v>0.04880054077706872</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1490447338.530987</v>
+        <v>1797172268.272465</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1131602408612816</v>
+        <v>0.1001778523628567</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03169623360161977</v>
+        <v>0.03041269976925989</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5326804859.032619</v>
+        <v>4401663115.422422</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1664827278300257</v>
+        <v>0.162358172275074</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0252428735499097</v>
+        <v>0.02901533988277191</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2530311486.688064</v>
+        <v>3619292192.795948</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1173294622377183</v>
+        <v>0.1137339661255548</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0206712089093317</v>
+        <v>0.02505797272861685</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2361123278.09643</v>
+        <v>2070649011.995393</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144299169187271</v>
+        <v>0.1043688224155041</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02891274199747006</v>
+        <v>0.02814050349838331</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3960392389.826383</v>
+        <v>3493125651.988835</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1497610593808003</v>
+        <v>0.1356310730369608</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02160904607652056</v>
+        <v>0.02170766884517396</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2656408771.635617</v>
+        <v>3005931262.780622</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1753831801477955</v>
+        <v>0.2056469877880521</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04762787346774505</v>
+        <v>0.05492794943990609</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_382.xlsx
+++ b/output/fit_clients/fit_round_382.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1738701433.99656</v>
+        <v>1760843350.74505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09005970228912011</v>
+        <v>0.1048224377593256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0301898787766851</v>
+        <v>0.0297232101788794</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1634149661.577727</v>
+        <v>2539433131.808686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1827980647872106</v>
+        <v>0.1846278712555678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03515887607467778</v>
+        <v>0.0331498083434905</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4064131500.863963</v>
+        <v>3831870291.527797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1103973826064674</v>
+        <v>0.1212833967260021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02593199445402343</v>
+        <v>0.03168657235608505</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>195</v>
+      </c>
+      <c r="J4" t="n">
+        <v>382</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4149527850.251243</v>
+        <v>3677520295.093212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09438097953640126</v>
+        <v>0.08883919805921627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0436267847977403</v>
+        <v>0.04778697244345814</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>153</v>
+      </c>
+      <c r="J5" t="n">
+        <v>382</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66.31089460189783</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2120780581.385812</v>
+        <v>1972838312.103931</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1095770513201514</v>
+        <v>0.09609707129702816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03983242336770931</v>
+        <v>0.03771221774937989</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2031218345.201137</v>
+        <v>2711757552.452633</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09042470999495694</v>
+        <v>0.08212108609622096</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03222377327607043</v>
+        <v>0.04244421054676686</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2721686457.381515</v>
+        <v>3822292374.169286</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2125449996831888</v>
+        <v>0.133840762066087</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02173308477220725</v>
+        <v>0.02595793545342608</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>102</v>
+      </c>
+      <c r="J8" t="n">
+        <v>382</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67.59413983378161</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2276185272.802984</v>
+        <v>2082348504.727873</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1197765533383015</v>
+        <v>0.1404513163181244</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03019465032507479</v>
+        <v>0.03541810473046606</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3799755382.641378</v>
+        <v>4206959795.347527</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1527702333146907</v>
+        <v>0.1315666204021355</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04468670305462216</v>
+        <v>0.04123160272644603</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>313</v>
+      </c>
+      <c r="J10" t="n">
+        <v>381</v>
+      </c>
+      <c r="K10" t="n">
+        <v>52.8502972523813</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4084526432.359439</v>
+        <v>2646151207.472373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1384342055953655</v>
+        <v>0.1774027049603309</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03380194885505248</v>
+        <v>0.04996477268601882</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>160</v>
+      </c>
+      <c r="J11" t="n">
+        <v>378</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2383909811.81778</v>
+        <v>2474700159.690238</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1400199579060705</v>
+        <v>0.1648632969825313</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0514411411626947</v>
+        <v>0.03846347089230995</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3487763891.326982</v>
+        <v>4196370098.861081</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07226387981243837</v>
+        <v>0.08649272344510157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02569385502962629</v>
+        <v>0.02971496145998796</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>198</v>
+      </c>
+      <c r="J13" t="n">
+        <v>381</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53.16649559641962</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2933093298.249099</v>
+        <v>2961519309.73187</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1222111596105672</v>
+        <v>0.1582134087582911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03535985511463641</v>
+        <v>0.03308314135551698</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>79</v>
+      </c>
+      <c r="J14" t="n">
+        <v>381</v>
+      </c>
+      <c r="K14" t="n">
+        <v>45.46359735039339</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1222225134.706483</v>
+        <v>1818089542.282835</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07672056687817344</v>
+        <v>0.07407738426837047</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03216328782332951</v>
+        <v>0.03573786703406524</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2503429030.028154</v>
+        <v>2347095143.252577</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1005173160962221</v>
+        <v>0.09101404974819938</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04615798876144462</v>
+        <v>0.04856667649680447</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5321955171.343588</v>
+        <v>4132405670.915452</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1157521196286593</v>
+        <v>0.1581403251203856</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05002591270317941</v>
+        <v>0.05129133560123358</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>182</v>
+      </c>
+      <c r="J17" t="n">
+        <v>382</v>
+      </c>
+      <c r="K17" t="n">
+        <v>54.33559607865201</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3264302701.619591</v>
+        <v>3476726980.717226</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1829636200945375</v>
+        <v>0.1834925427253189</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03047343073157088</v>
+        <v>0.03395754874820175</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>93</v>
+      </c>
+      <c r="J18" t="n">
+        <v>378</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1293430524.42613</v>
+        <v>1061188142.253078</v>
       </c>
       <c r="F19" t="n">
-        <v>0.148015232582758</v>
+        <v>0.1629951176086641</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02153801941867713</v>
+        <v>0.01706736407494156</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2059216529.151684</v>
+        <v>2150925256.797544</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1268715529004892</v>
+        <v>0.1481577184030189</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02602289956379876</v>
+        <v>0.02321622987126093</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2431840648.654749</v>
+        <v>1942397727.367807</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0961072115945916</v>
+        <v>0.09485708506934083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03163361773395772</v>
+        <v>0.02792926215286362</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3537642598.675472</v>
+        <v>2951011937.413141</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08883620261732394</v>
+        <v>0.08954076805016192</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05207114175914314</v>
+        <v>0.04072780567708163</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1363116582.848076</v>
+        <v>1163545345.971142</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1485777413960096</v>
+        <v>0.1599046248961406</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04560442193754794</v>
+        <v>0.05283350811033004</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3402681628.612264</v>
+        <v>2969753672.872208</v>
       </c>
       <c r="F24" t="n">
-        <v>0.116159429603798</v>
+        <v>0.1137890282993761</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02297841857978605</v>
+        <v>0.02967642745033602</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="n">
+        <v>35.01852081679753</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1400020453.334356</v>
+        <v>896814351.774287</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07658471229858205</v>
+        <v>0.07654729566785297</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02138001906939133</v>
+        <v>0.01879078674897024</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>977254150.4486408</v>
+        <v>959731607.6831208</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08461873659191464</v>
+        <v>0.09621364656279119</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02957812555018226</v>
+        <v>0.03250215099395505</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3748326830.418604</v>
+        <v>3987970717.314137</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1077513837226908</v>
+        <v>0.1080060450026554</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02612471241670282</v>
+        <v>0.01726697191441059</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>158</v>
+      </c>
+      <c r="J27" t="n">
+        <v>382</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3327943946.840537</v>
+        <v>3539173088.584072</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1271976476706676</v>
+        <v>0.1137776683359856</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04382965345849762</v>
+        <v>0.03974305710004986</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>377</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5747677216.675073</v>
+        <v>3734093748.189703</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09233762281369351</v>
+        <v>0.1475106839012324</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04387089822419863</v>
+        <v>0.03277202667349885</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>329</v>
+      </c>
+      <c r="J29" t="n">
+        <v>382</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1777697614.375833</v>
+        <v>1680927202.895442</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1385106476600419</v>
+        <v>0.08896382112479885</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03431938977728353</v>
+        <v>0.03125063415734889</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>924716718.6027782</v>
+        <v>1150757065.061595</v>
       </c>
       <c r="F31" t="n">
-        <v>0.110778540088946</v>
+        <v>0.07043893218769527</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03546448171664794</v>
+        <v>0.04986441772656579</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1525462289.799731</v>
+        <v>1565701127.341494</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09779479591933936</v>
+        <v>0.1085193555210711</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02848962306819346</v>
+        <v>0.02784353758260428</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2331578809.272942</v>
+        <v>2779319057.301624</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1758854443201818</v>
+        <v>0.1623091293635965</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04323337328039079</v>
+        <v>0.03919222976072729</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>982798135.9443536</v>
+        <v>1471522644.035219</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09723268511639238</v>
+        <v>0.1019809363665536</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0266700032148923</v>
+        <v>0.02814586356105073</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>826633315.0421768</v>
+        <v>1324909433.673921</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1014900852301621</v>
+        <v>0.09446954277812933</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04465739548758774</v>
+        <v>0.03785886033795041</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2514065261.898333</v>
+        <v>2057357223.854757</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1425606758200983</v>
+        <v>0.1808781842129222</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0211562375511224</v>
+        <v>0.02039171993773928</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1965210463.992275</v>
+        <v>2070893869.29184</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06948820354903988</v>
+        <v>0.08106192948296172</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02970836710354662</v>
+        <v>0.03991304087939877</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1829647305.462139</v>
+        <v>2004237121.018726</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08773079135355757</v>
+        <v>0.08397702420257841</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03131760573485431</v>
+        <v>0.03869242837718645</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1907911437.142541</v>
+        <v>2119680520.639898</v>
       </c>
       <c r="F39" t="n">
-        <v>0.127319221366584</v>
+        <v>0.1727891700043528</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02419068367499318</v>
+        <v>0.03116914135015784</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1497569108.397699</v>
+        <v>1139845832.971989</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1431242900835641</v>
+        <v>0.1399652637410757</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05465998043194601</v>
+        <v>0.05896557690842897</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2891787652.26838</v>
+        <v>2585940530.241742</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1406972987443837</v>
+        <v>0.1452552362188791</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03478911747024131</v>
+        <v>0.03300069946919604</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2921589373.893938</v>
+        <v>4143127421.731534</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08400959422642708</v>
+        <v>0.09893974709204235</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03412037189238845</v>
+        <v>0.04250863985388904</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>167</v>
+      </c>
+      <c r="J42" t="n">
+        <v>382</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2452648133.728231</v>
+        <v>2248413068.370343</v>
       </c>
       <c r="F43" t="n">
-        <v>0.148878307992849</v>
+        <v>0.1841882408731084</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01867510808218859</v>
+        <v>0.01714352471145481</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1606063080.028417</v>
+        <v>1606275415.195181</v>
       </c>
       <c r="F44" t="n">
-        <v>0.098342955501628</v>
+        <v>0.07179662301745568</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02264132878347305</v>
+        <v>0.02282934646856083</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1925376973.094662</v>
+        <v>2460152316.881489</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1693786407711196</v>
+        <v>0.1362232269850667</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03912281037706807</v>
+        <v>0.04680320442085478</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4780447774.48368</v>
+        <v>4809197805.15735</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1472739068277542</v>
+        <v>0.1391959053187853</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04372334078780045</v>
+        <v>0.04980965717184553</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>229</v>
+      </c>
+      <c r="J46" t="n">
+        <v>381</v>
+      </c>
+      <c r="K46" t="n">
+        <v>51.35358879003431</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4856752437.641621</v>
+        <v>4577144165.564774</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1289073933859878</v>
+        <v>0.1990563229041287</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05345513107188542</v>
+        <v>0.05489457906652485</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>171</v>
+      </c>
+      <c r="J47" t="n">
+        <v>381</v>
+      </c>
+      <c r="K47" t="n">
+        <v>49.32930001867595</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4612812955.076241</v>
+        <v>3208379526.214564</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09942635212499391</v>
+        <v>0.07978995379242546</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03064932525319271</v>
+        <v>0.02792688672706072</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>198</v>
+      </c>
+      <c r="J48" t="n">
+        <v>381</v>
+      </c>
+      <c r="K48" t="n">
+        <v>38.04471717820245</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1878916995.524115</v>
+        <v>1595197390.753807</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1482397386996029</v>
+        <v>0.13347316956797</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04187693606650942</v>
+        <v>0.03538155578715098</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3940507890.903176</v>
+        <v>4155655081.105047</v>
       </c>
       <c r="F50" t="n">
-        <v>0.111094509541122</v>
+        <v>0.1552190768377469</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04326562538320012</v>
+        <v>0.04953568600816254</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>131</v>
+      </c>
+      <c r="J50" t="n">
+        <v>382</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61.25003377973729</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1253270699.858019</v>
+        <v>1240714838.167947</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1346094908946426</v>
+        <v>0.1771226631061748</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03767440632545537</v>
+        <v>0.03849832574520643</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2273,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3754490825.138759</v>
+        <v>4347716227.2664</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1075411567601933</v>
+        <v>0.09624961572026655</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05082937203803811</v>
+        <v>0.03740895126078443</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>224</v>
+      </c>
+      <c r="J52" t="n">
+        <v>381</v>
+      </c>
+      <c r="K52" t="n">
+        <v>50.33786112835925</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3596781571.653056</v>
+        <v>2942182955.002769</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1293161089349438</v>
+        <v>0.1628998150708922</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02691702604769155</v>
+        <v>0.02924246144914055</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>380</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2345,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3100180891.15815</v>
+        <v>3999355838.812104</v>
       </c>
       <c r="F54" t="n">
-        <v>0.141712552515613</v>
+        <v>0.1221400815744076</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03673553205530829</v>
+        <v>0.03902279817562618</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>203</v>
+      </c>
+      <c r="J54" t="n">
+        <v>382</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3582120312.623789</v>
+        <v>3045668400.147464</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1623318798194734</v>
+        <v>0.142588005763491</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0196631179894651</v>
+        <v>0.02623613017946426</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>184</v>
+      </c>
+      <c r="J55" t="n">
+        <v>380</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1175373398.426606</v>
+        <v>1689646872.113971</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1002111220807889</v>
+        <v>0.1595526996489182</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05383430111357373</v>
+        <v>0.04693015793718686</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2877901749.56776</v>
+        <v>4220140761.079968</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1474731701798914</v>
+        <v>0.1475287612942179</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02359099709300388</v>
+        <v>0.02016597108220993</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>161</v>
+      </c>
+      <c r="J57" t="n">
+        <v>382</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1419204680.061862</v>
+        <v>1296904050.523159</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1440444674690353</v>
+        <v>0.1510003017635391</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03984345909021552</v>
+        <v>0.03259572207274793</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5358642249.471544</v>
+        <v>3798291888.587671</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1195166840360292</v>
+        <v>0.1136759300952965</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03817661298229395</v>
+        <v>0.04174098967628202</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>185</v>
+      </c>
+      <c r="J59" t="n">
+        <v>382</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3685894439.535537</v>
+        <v>2995216071.189707</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1754111956003956</v>
+        <v>0.1257146905714326</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02266231637733791</v>
+        <v>0.0329999387143421</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2116777041.350434</v>
+        <v>2246969002.833575</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1794120554816664</v>
+        <v>0.1235943931308121</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02469209065925681</v>
+        <v>0.02107670026653005</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1598111050.702708</v>
+        <v>1989876177.522647</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1402690061722753</v>
+        <v>0.1534098503199519</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04920878741340569</v>
+        <v>0.03892402909708573</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4684728752.139014</v>
+        <v>4936274487.230251</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07627766382202082</v>
+        <v>0.08146403057760827</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04139704628274526</v>
+        <v>0.03643897394826179</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>189</v>
+      </c>
+      <c r="J63" t="n">
+        <v>382</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4616243752.382152</v>
+        <v>3718260589.499986</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1450250122741409</v>
+        <v>0.1886078526143586</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02258353971371252</v>
+        <v>0.02953867561360724</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>190</v>
+      </c>
+      <c r="J64" t="n">
+        <v>381</v>
+      </c>
+      <c r="K64" t="n">
+        <v>49.50655911482044</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5473552639.855789</v>
+        <v>3672336165.299126</v>
       </c>
       <c r="F65" t="n">
-        <v>0.172336122625673</v>
+        <v>0.1167218691538673</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02925413738900737</v>
+        <v>0.02799182231649947</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>286</v>
+      </c>
+      <c r="J65" t="n">
+        <v>382</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5709457172.440371</v>
+        <v>3451842308.493751</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1075038764625443</v>
+        <v>0.1417725609724083</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04835909153970378</v>
+        <v>0.0509290815607028</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>189</v>
+      </c>
+      <c r="J66" t="n">
+        <v>381</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40.60042687351378</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3129521951.718819</v>
+        <v>3445034859.67167</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06855860872907685</v>
+        <v>0.09223453183864298</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03905470856879972</v>
+        <v>0.03858000049228091</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4950448089.779175</v>
+        <v>4796979497.44156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1394522134102245</v>
+        <v>0.1124987421441966</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05040686516261908</v>
+        <v>0.0509244254011344</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>207</v>
+      </c>
+      <c r="J68" t="n">
+        <v>381</v>
+      </c>
+      <c r="K68" t="n">
+        <v>53.68552229481489</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2135889819.179651</v>
+        <v>1840673163.391034</v>
       </c>
       <c r="F69" t="n">
-        <v>0.159934806918796</v>
+        <v>0.1575463453082565</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04766181369882183</v>
+        <v>0.04343456229094292</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2727339362.387496</v>
+        <v>3037314056.94966</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08486850558426606</v>
+        <v>0.0849034931264926</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03916998300447261</v>
+        <v>0.04063960448559129</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5342100958.613739</v>
+        <v>4852631015.56147</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1587347812481114</v>
+        <v>0.1155840508268914</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03317594726888624</v>
+        <v>0.03267522150052529</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>272</v>
+      </c>
+      <c r="J71" t="n">
+        <v>382</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1901110195.756498</v>
+        <v>2089012307.878933</v>
       </c>
       <c r="F72" t="n">
-        <v>0.067667181882301</v>
+        <v>0.1058250391843738</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05188261730250734</v>
+        <v>0.04854545576920405</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3016,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2757556549.474279</v>
+        <v>3118205034.134689</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1101425007084486</v>
+        <v>0.09231783844755109</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03215174988809236</v>
+        <v>0.03948283883999072</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>28</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="n">
+        <v>61.42056118192139</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2501204671.80638</v>
+        <v>3268390337.306161</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1602946866847107</v>
+        <v>0.1775466217438505</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02978943734984803</v>
+        <v>0.02884288449428902</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>110</v>
+      </c>
+      <c r="J74" t="n">
+        <v>381</v>
+      </c>
+      <c r="K74" t="n">
+        <v>48.48425695283739</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2069793880.642627</v>
+        <v>1792614836.001198</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1663984515133868</v>
+        <v>0.1225940487288133</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03115215866451824</v>
+        <v>0.02310236514275982</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4812780164.079372</v>
+        <v>4940259252.63874</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08868903496386009</v>
+        <v>0.1001668099572742</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02549147662411623</v>
+        <v>0.02135439564058421</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>180</v>
+      </c>
+      <c r="J76" t="n">
+        <v>382</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1596345858.44161</v>
+        <v>1611153049.179447</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1614621833647457</v>
+        <v>0.1342557322291909</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03151446019441471</v>
+        <v>0.02560309000114718</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4505928691.186415</v>
+        <v>2950681698.894379</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1147709936816672</v>
+        <v>0.1328623838784269</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04808330478546716</v>
+        <v>0.04386686680798021</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>191</v>
+      </c>
+      <c r="J78" t="n">
+        <v>381</v>
+      </c>
+      <c r="K78" t="n">
+        <v>31.4686329032485</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1604484163.078351</v>
+        <v>1364512392.124732</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1745046766873969</v>
+        <v>0.1417679689365022</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03434284981696815</v>
+        <v>0.04045032264566098</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5084049068.531178</v>
+        <v>4556497214.354087</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07294258753873743</v>
+        <v>0.0697959450102832</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0315563346723212</v>
+        <v>0.03665371016806498</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>186</v>
+      </c>
+      <c r="J80" t="n">
+        <v>382</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5076769030.27612</v>
+        <v>4739763850.19081</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08632125931976879</v>
+        <v>0.1346972650550281</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0314009214963014</v>
+        <v>0.02384101489004438</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>177</v>
+      </c>
+      <c r="J81" t="n">
+        <v>382</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3996329770.632671</v>
+        <v>5429536863.238822</v>
       </c>
       <c r="F82" t="n">
-        <v>0.178230071251927</v>
+        <v>0.161387323000363</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01823981688406259</v>
+        <v>0.02172039666292615</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>264</v>
+      </c>
+      <c r="J82" t="n">
+        <v>381</v>
+      </c>
+      <c r="K82" t="n">
+        <v>54.10082906824888</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1610427752.498873</v>
+        <v>2279410834.095837</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1531308658002703</v>
+        <v>0.1175500178407244</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03102237109443382</v>
+        <v>0.03512874440237315</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2595093162.168007</v>
+        <v>2568798537.846961</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08982022106689412</v>
+        <v>0.1068879043688174</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0467824492683087</v>
+        <v>0.04174800356862785</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3217112271.49384</v>
+        <v>3142580751.18473</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1642108971697201</v>
+        <v>0.176630028707082</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0554088861988434</v>
+        <v>0.03751218749467565</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1975972571.777125</v>
+        <v>2398142355.804051</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1419858814654625</v>
+        <v>0.1305275410904274</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0247986516122773</v>
+        <v>0.02290221249309555</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1394686228.024346</v>
+        <v>1314381649.440362</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1765748409248155</v>
+        <v>0.1377143054883731</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03179843553641477</v>
+        <v>0.04280185840566669</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3429517075.688857</v>
+        <v>2301303437.748259</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1179366875589402</v>
+        <v>0.1551791141306169</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03049112996685783</v>
+        <v>0.03034371501887467</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2376513080.225413</v>
+        <v>2174546173.617876</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1519498715422017</v>
+        <v>0.1309506523000429</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02976963517898366</v>
+        <v>0.02955397527501304</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1823534717.733194</v>
+        <v>1879263555.234829</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1267355450620443</v>
+        <v>0.09888403796210385</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03544333593181025</v>
+        <v>0.05082700273581389</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1974530387.504866</v>
+        <v>1937254759.100203</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1611409805818647</v>
+        <v>0.1804559797883026</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03877279107372988</v>
+        <v>0.05915054405269165</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2642125159.428088</v>
+        <v>1886479040.397535</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09274661917231648</v>
+        <v>0.1075484307449878</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03520698135294937</v>
+        <v>0.04310449385771081</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3208753330.750136</v>
+        <v>4641599893.612579</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08615603635792775</v>
+        <v>0.0933493849424205</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05347644895324895</v>
+        <v>0.04617474033200148</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>180</v>
+      </c>
+      <c r="J93" t="n">
+        <v>382</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1986861621.176064</v>
+        <v>2409595660.167851</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1101767910366495</v>
+        <v>0.1065330441106792</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04160144763474598</v>
+        <v>0.03050592536949406</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3057290860.256722</v>
+        <v>2441876527.068789</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1174737767724581</v>
+        <v>0.13328052308916</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04880054077706872</v>
+        <v>0.03966435648605078</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1797172268.272465</v>
+        <v>2015058756.00908</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1001778523628567</v>
+        <v>0.08716723417608457</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03041269976925989</v>
+        <v>0.0410076435674585</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4401663115.422422</v>
+        <v>3807569279.491937</v>
       </c>
       <c r="F97" t="n">
-        <v>0.162358172275074</v>
+        <v>0.1115084311573027</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02901533988277191</v>
+        <v>0.02796703013436181</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>197</v>
+      </c>
+      <c r="J97" t="n">
+        <v>382</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3619292192.795948</v>
+        <v>2922749718.981218</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1137339661255548</v>
+        <v>0.1219640332479658</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02505797272861685</v>
+        <v>0.02058220582031709</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2070649011.995393</v>
+        <v>2475350674.02655</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1043688224155041</v>
+        <v>0.108072214251533</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02814050349838331</v>
+        <v>0.0297164490261348</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3493125651.988835</v>
+        <v>4430744966.637953</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1356310730369608</v>
+        <v>0.1212673106312777</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02170766884517396</v>
+        <v>0.02305910264520174</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>176</v>
+      </c>
+      <c r="J100" t="n">
+        <v>381</v>
+      </c>
+      <c r="K100" t="n">
+        <v>53.331214522723</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3005931262.780622</v>
+        <v>3469002518.757346</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2056469877880521</v>
+        <v>0.152317484236438</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05492794943990609</v>
+        <v>0.04197681208039691</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
